--- a/conf/config.xlsx
+++ b/conf/config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\sendmail\conf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitRepository\sendMail\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="7380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="7380" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>主题</t>
   </si>
@@ -59,9 +59,6 @@
     <t>mysql</t>
   </si>
   <si>
-    <t>PanJinLong|JiJiRenSheng|XiaoXu</t>
-  </si>
-  <si>
     <t>流量日志监控(红色仅表示可疑数据，不一定是错误!)</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>oracle</t>
   </si>
   <si>
-    <t>lingfangyuan@gialen.com,panjinlong@gialen.com,zhouhuidong@gialen.com,liqisheng@gialen.com</t>
-  </si>
-  <si>
     <t>流量日志异常</t>
   </si>
   <si>
@@ -110,43 +104,10 @@
     <t>ID</t>
   </si>
   <si>
-    <t>潘金龙</t>
-  </si>
-  <si>
-    <t>PanJinLong</t>
-  </si>
-  <si>
-    <t>李契生</t>
-  </si>
-  <si>
-    <t>JiJiRenSheng</t>
-  </si>
-  <si>
-    <t>凌方圆</t>
-  </si>
-  <si>
-    <t>XiaoXu</t>
-  </si>
-  <si>
     <t>邮箱地址</t>
   </si>
   <si>
     <t>多人接收时用“,”隔开</t>
-  </si>
-  <si>
-    <t>panjinlong@gialen.com</t>
-  </si>
-  <si>
-    <t>liqisheng@gialen.com</t>
-  </si>
-  <si>
-    <t>lingfangyuan@gialen.com</t>
-  </si>
-  <si>
-    <t>周惠冬</t>
-  </si>
-  <si>
-    <t>zhouhuidong@gialen.com</t>
   </si>
   <si>
     <t>多人接收时用“,”隔开</t>
@@ -276,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,7 +272,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -522,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -543,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -569,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -580,42 +541,37 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -624,47 +580,42 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -673,11 +624,9 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -696,7 +645,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -706,43 +655,31 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
@@ -754,10 +691,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -769,45 +706,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
       <c r="C1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
